--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A1D6C0-C290-4449-8810-0C8F1928F841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E010E-A270-46E4-923E-479D384C8C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Jeudi</t>
   </si>
   <si>
-    <t>Emploi du Temps L3</t>
-  </si>
-  <si>
     <t>8h 30 - 09h 30</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>14h30-15h30</t>
+  </si>
+  <si>
+    <t>Emploi du Temps</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,34 +302,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +316,27 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,15 +616,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -649,15 +646,15 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -679,15 +676,15 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -737,15 +734,15 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
+      <c r="A5" s="27" t="s">
+        <v>15</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="8"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -796,26 +793,26 @@
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="H7" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -837,16 +834,16 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -867,14 +864,14 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -895,14 +892,14 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -923,14 +920,14 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -951,14 +948,14 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -979,14 +976,14 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1007,14 +1004,14 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1035,16 +1032,16 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1065,14 +1062,14 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1093,14 +1090,14 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1121,14 +1118,14 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1149,14 +1146,14 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1177,14 +1174,14 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1205,14 +1202,14 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1233,16 +1230,16 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1263,14 +1260,14 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1291,14 +1288,14 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1319,14 +1316,14 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1347,14 +1344,14 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1375,14 +1372,14 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1403,14 +1400,14 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1431,16 +1428,16 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1461,14 +1458,14 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1489,14 +1486,14 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1517,14 +1514,14 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1545,14 +1542,14 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1573,14 +1570,14 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1601,14 +1598,14 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1629,16 +1626,16 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1659,14 +1656,14 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -1687,14 +1684,14 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1715,14 +1712,14 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -1743,14 +1740,14 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -1771,14 +1768,14 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -1799,14 +1796,14 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>

--- a/test/result.xlsx
+++ b/test/result.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E010E-A270-46E4-923E-479D384C8C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46AFFF-111D-464F-AF37-7F90C114C3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="L3" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -607,7 +607,7 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28968,7 +28968,7 @@
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:F8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"???"</formula>
     </cfRule>
   </conditionalFormatting>
